--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patir\Documents\Praca ESMlab\1. TIMES-PL-PSE\Potencjał biogazu\Poprawy 2026\BASIC_AGR\Basic_AGR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patir\Documents\Praca ESMlab\1. TIMES-PL-PSE\Potencjał biogazu\2. 2026\BASIC_AGR\Basic_AGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FE9BEA-9CF2-495A-81D9-3D268AC3482E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F059C5-FD54-4370-B67F-3E355C134EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" tabRatio="853" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" tabRatio="853" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -960,772 +960,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>108640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{557AC39D-F00A-4172-98CF-BF3BF1F49F3D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="57150" y="1819275"/>
-          <a:ext cx="4038600" cy="1209675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>~BookRegions_Map </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>is used to define:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>the workbook name</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> (cells B5 and B6);</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> the name must be the same for each base year template workbook  VT_REG1_&lt;sector&gt;_&lt;version&gt; (for REG1);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- the list of region names (cell E5,6,,...) maps the names used in the B-Y templates to the model regions:  in this case REG1 and REG2.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{946EA28F-ED80-43A2-80B0-121C17FBF1CC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4800599" y="1466850"/>
-          <a:ext cx="3362325" cy="847725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>~TimeSlices</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> is used to define:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- the time-slices resolution for the model, by declaring the elements of each time-slice. In the column-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>SEASON</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>WEEKLY </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>and </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>DAYNITE</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>32384</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>41909</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>291465</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>5722</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D585EBF5-19B2-4F27-A005-558624CC7A4D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6280784" y="712469"/>
-          <a:ext cx="6560821" cy="1967866"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>~StartYear</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> is used to define:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>the start year of the model (2005);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>~ActivePDef</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> is used to define:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>the set of active periods. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Alternate period definitions can be made and the active one is declared under the tag</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> ~ActiveDef</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>~TimePeriods</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> is used to define:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>the time horizon of the model for the ActivePdef.  In</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> this example two period definitions (Pdef-1 and Pdef-5)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- For Pdef-1 the number of years </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>for the start year (first period is 1 year long), the second period has 2 years</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -1899,7 +1133,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2184,7 +1418,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2664,7 +1898,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3278,7 +2512,7 @@
   <dimension ref="B3:J5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3332,8 +2566,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3342,7 +2575,7 @@
   <dimension ref="B3:B14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3398,7 +2631,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3406,7 +2638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:C9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
@@ -3482,7 +2714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B13:Q19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="59" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -3809,7 +3041,7 @@
   <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4300,26 +3532,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="2993e53c-5804-4a67-93fb-28b8362cd015" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="170e58e9-e7cd-474a-92db-e9a604da91e6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003072D86D12BBB4489DD10379CB2942C4" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aafb5670a5d5d2b7ddeeb452f3034230">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="170e58e9-e7cd-474a-92db-e9a604da91e6" xmlns:ns3="2993e53c-5804-4a67-93fb-28b8362cd015" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b35fe0e36b0ef8e9c2fbdc19245eaaa" ns2:_="" ns3:_="">
     <xsd:import namespace="170e58e9-e7cd-474a-92db-e9a604da91e6"/>
@@ -4514,26 +3726,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23DBFA9A-F91F-4FD3-948F-E61D64FE0893}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2993e53c-5804-4a67-93fb-28b8362cd015"/>
-    <ds:schemaRef ds:uri="170e58e9-e7cd-474a-92db-e9a604da91e6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D5FC709-3A05-48A4-B886-52B0F96A16DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="2993e53c-5804-4a67-93fb-28b8362cd015" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="170e58e9-e7cd-474a-92db-e9a604da91e6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57E8B4DB-34FE-410C-9297-CE8E95A54705}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4550,4 +3763,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D5FC709-3A05-48A4-B886-52B0F96A16DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23DBFA9A-F91F-4FD3-948F-E61D64FE0893}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2993e53c-5804-4a67-93fb-28b8362cd015"/>
+    <ds:schemaRef ds:uri="170e58e9-e7cd-474a-92db-e9a604da91e6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patir\Documents\Praca ESMlab\1. TIMES-PL-PSE\Potencjał biogazu\2. 2026\BASIC_AGR\Basic_AGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F059C5-FD54-4370-B67F-3E355C134EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97220A83-7D34-440F-9C6C-8EED87994E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" tabRatio="853" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="18420" windowHeight="10008" tabRatio="853" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -2836,8 +2836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:G34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -2894,7 +2894,7 @@
         <v>45</v>
       </c>
       <c r="E8" s="11">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -3040,7 +3040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -3532,6 +3532,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="2993e53c-5804-4a67-93fb-28b8362cd015" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="170e58e9-e7cd-474a-92db-e9a604da91e6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003072D86D12BBB4489DD10379CB2942C4" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aafb5670a5d5d2b7ddeeb452f3034230">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="170e58e9-e7cd-474a-92db-e9a604da91e6" xmlns:ns3="2993e53c-5804-4a67-93fb-28b8362cd015" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b35fe0e36b0ef8e9c2fbdc19245eaaa" ns2:_="" ns3:_="">
     <xsd:import namespace="170e58e9-e7cd-474a-92db-e9a604da91e6"/>
@@ -3726,27 +3746,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23DBFA9A-F91F-4FD3-948F-E61D64FE0893}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2993e53c-5804-4a67-93fb-28b8362cd015"/>
+    <ds:schemaRef ds:uri="170e58e9-e7cd-474a-92db-e9a604da91e6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="2993e53c-5804-4a67-93fb-28b8362cd015" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="170e58e9-e7cd-474a-92db-e9a604da91e6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D5FC709-3A05-48A4-B886-52B0F96A16DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57E8B4DB-34FE-410C-9297-CE8E95A54705}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3763,23 +3782,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D5FC709-3A05-48A4-B886-52B0F96A16DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23DBFA9A-F91F-4FD3-948F-E61D64FE0893}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2993e53c-5804-4a67-93fb-28b8362cd015"/>
-    <ds:schemaRef ds:uri="170e58e9-e7cd-474a-92db-e9a604da91e6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patir\Documents\Praca ESMlab\1. TIMES-PL-PSE\Potencjał biogazu\2. 2026\BASIC_AGR\Basic_AGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97220A83-7D34-440F-9C6C-8EED87994E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5FC6BD-A887-4A9F-BCC4-EBB578541BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="18420" windowHeight="10008" tabRatio="853" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="18420" windowHeight="10008" tabRatio="853" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -2837,7 +2837,7 @@
   <dimension ref="B3:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -2886,7 +2886,7 @@
         <v>55</v>
       </c>
       <c r="E7" s="11">
-        <v>2005</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -3532,6 +3532,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="2993e53c-5804-4a67-93fb-28b8362cd015" xsi:nil="true"/>
@@ -3540,15 +3549,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3747,20 +3747,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D5FC709-3A05-48A4-B886-52B0F96A16DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23DBFA9A-F91F-4FD3-948F-E61D64FE0893}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="2993e53c-5804-4a67-93fb-28b8362cd015"/>
     <ds:schemaRef ds:uri="170e58e9-e7cd-474a-92db-e9a604da91e6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D5FC709-3A05-48A4-B886-52B0F96A16DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
